--- a/bots/crawl_ch/output/electronics_2022-07-28.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1447,24 +1447,24 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6153846</t>
+          <t>4949707</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
+          <t>Varta Knopfzellen CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1472,25 +1472,23 @@
           <t>2ST</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1500,7 +1498,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1515,29 +1513,29 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4949707</t>
+          <t>6153846</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1545,23 +1543,25 @@
           <t>2ST</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -1950,50 +1950,48 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>4</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2003,7 +2001,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2013,34 +2011,34 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2089,53 +2087,55 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3283,50 +3283,48 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>3.98/1ST</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3336,7 +3334,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3351,53 +3349,55 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.98/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
@@ -4727,162 +4727,160 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6634107</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Trend Bluetooth Lautsprecher E100 Grün</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-bluetooth-lautsprecher-e100-gruen/p/6634107</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Trend Bluetooth Lautsprecher E100 Grün 50% Aktion 19.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6872591</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Bosch</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>239.50</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4892,7 +4890,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4902,7 +4900,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4917,29 +4915,29 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6872591</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4949,12 +4947,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>239.50</t>
+          <t>349.50</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4968,100 +4966,82 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -5071,12 +5051,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>349.50</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5085,51 +5065,51 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5138,34 +5118,34 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -5175,12 +5155,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5189,42 +5169,40 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>7</v>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5233,7 +5211,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5247,29 +5225,29 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5284,7 +5262,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5293,34 +5271,34 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5330,12 +5308,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5344,49 +5322,51 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5400,29 +5380,29 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -5437,7 +5417,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5451,37 +5431,35 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5490,7 +5468,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5504,35 +5482,37 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4</v>
+      </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5541,7 +5521,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5555,39 +5535,43 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5595,98 +5579,132 @@
           <t>29.95</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1.99/1ST</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5695,17 +5713,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5715,7 +5733,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5725,39 +5743,39 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5771,12 +5789,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5786,7 +5804,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5796,34 +5814,34 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5842,12 +5860,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5857,7 +5875,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5872,29 +5890,29 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5902,9 +5920,11 @@
           <t>2ST</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5913,12 +5933,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5928,7 +5948,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5943,34 +5963,34 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5989,7 +6009,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5999,7 +6019,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6009,88 +6029,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-28 07:00:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>3591272</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>2022-07-28 07:00:48</t>
+          <t>2022-07-28 20:59:25</t>
         </is>
       </c>
     </row>
